--- a/data/trans_dic/iP31B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP31B_R-Edad-trans_dic.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 14,38</t>
+          <t>1,5; 13,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,02</t>
+          <t>0,85; 6,92</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 12,07</t>
+          <t>5,36; 11,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,7</t>
+          <t>1,82; 7,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,64</t>
+          <t>4,11; 8,49</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,96</t>
+          <t>4,32; 10,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 17,14</t>
+          <t>8,59; 17,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 12,53</t>
+          <t>7,04; 12,78</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,55</t>
+          <t>8,9; 16,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,08</t>
+          <t>5,88; 13,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,25</t>
+          <t>8,46; 13,52</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,45</t>
+          <t>7,56; 11,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,34</t>
+          <t>6,25; 10,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 10,36</t>
+          <t>7,48; 10,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP31B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP31B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 13,98</t>
+          <t>0; 2,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>1,57; 13,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,92</t>
+          <t>0,84; 7,19</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,97</t>
+          <t>1,66; 7,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,31</t>
+          <t>5,16; 12,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,49</t>
+          <t>4,17; 8,28</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>8,91%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,94</t>
+          <t>7,74; 16,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,59; 17,76</t>
+          <t>3,89; 10,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,78</t>
+          <t>6,52; 11,68</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 16,1</t>
+          <t>5,07; 11,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,06</t>
+          <t>8,16; 15,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,52</t>
+          <t>7,45; 12,21</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,13%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 11,49</t>
+          <t>5,63; 9,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,45</t>
+          <t>7,03; 10,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 10,25</t>
+          <t>6,89; 9,55</t>
         </is>
       </c>
     </row>
